--- a/output/within_species_scWheat-snWheat/cluster_deg_overlap_statistics.xlsx
+++ b/output/within_species_scWheat-snWheat/cluster_deg_overlap_statistics.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="tae_sc-to-tae_sn" sheetId="1" r:id="rId1"/>
-    <sheet name="tae_sn-to-tae_sc" sheetId="2" r:id="rId2"/>
+    <sheet name="wheat_sc-to-wheat_sn" sheetId="1" r:id="rId1"/>
+    <sheet name="wheat_sn-to-wheat_sc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="108">
   <si>
-    <t>tae_sc cluster</t>
+    <t>wheat_sc cluster</t>
   </si>
   <si>
-    <t>tae_sn cluster</t>
+    <t>wheat_sn cluster</t>
   </si>
   <si>
     <t>number of matches</t>
@@ -745,13 +745,13 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>5.63</v>
+        <v>5.71</v>
       </c>
       <c r="E2">
         <v>0.0009</v>
       </c>
       <c r="F2">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -892,13 +892,13 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>16.6</v>
+        <v>16.17</v>
       </c>
       <c r="E8">
         <v>0.0009</v>
       </c>
       <c r="F8">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -924,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E9">
-        <v>0.359</v>
+        <v>0.383</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1080,10 +1080,10 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="E15">
-        <v>0.464</v>
+        <v>0.485</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1135,13 +1135,13 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>21.51</v>
+        <v>25.64</v>
       </c>
       <c r="E17">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F17">
-        <v>0.04863157894736842</v>
+        <v>0.0308</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>2.17</v>
+        <v>2.86</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>3.85</v>
+        <v>4.76</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1723,13 +1723,13 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>17.47</v>
+        <v>16.88</v>
       </c>
       <c r="E41">
         <v>0.0009</v>
       </c>
       <c r="F41">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -1847,13 +1847,13 @@
         <v>39</v>
       </c>
       <c r="D46">
-        <v>5.06</v>
+        <v>5.03</v>
       </c>
       <c r="E46">
         <v>0.0009</v>
       </c>
       <c r="F46">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>7.14</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>5.56</v>
+        <v>4.35</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="E68">
         <v>0.077</v>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>0.0009</v>
       </c>
       <c r="F75">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2747,13 +2747,13 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="E82">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
       <c r="F82">
-        <v>0.238</v>
+        <v>0.168</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3027,13 +3027,13 @@
         <v>33</v>
       </c>
       <c r="D93">
-        <v>11.45</v>
+        <v>11.44</v>
       </c>
       <c r="E93">
         <v>0.0009</v>
       </c>
       <c r="F93">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3468,13 +3468,13 @@
         <v>32</v>
       </c>
       <c r="D111">
-        <v>19.05</v>
+        <v>19.5</v>
       </c>
       <c r="E111">
         <v>0.0009</v>
       </c>
       <c r="F111">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>2.44</v>
+        <v>4.55</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -3716,10 +3716,10 @@
         <v>2</v>
       </c>
       <c r="D121">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="E121">
-        <v>0.13</v>
+        <v>0.132</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -3835,16 +3835,16 @@
         <v>3</v>
       </c>
       <c r="D125">
-        <v>6.99</v>
+        <v>7.43</v>
       </c>
       <c r="E125">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="F125">
-        <v>0.1232</v>
+        <v>0.0308</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>59</v>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -4115,13 +4115,13 @@
         <v>7</v>
       </c>
       <c r="D136">
-        <v>15.66</v>
+        <v>16.24</v>
       </c>
       <c r="E136">
         <v>0.0009</v>
       </c>
       <c r="F136">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
@@ -4193,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1.72</v>
+        <v>2.27</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -4349,10 +4349,10 @@
         <v>2</v>
       </c>
       <c r="D145">
-        <v>3.84</v>
+        <v>3.95</v>
       </c>
       <c r="E145">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -4473,13 +4473,13 @@
         <v>14</v>
       </c>
       <c r="D150">
-        <v>13.82</v>
+        <v>13.94</v>
       </c>
       <c r="E150">
         <v>0.0009</v>
       </c>
       <c r="F150">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -4505,10 +4505,10 @@
         <v>3</v>
       </c>
       <c r="D151">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="E151">
-        <v>0.421</v>
+        <v>0.42</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -4537,10 +4537,10 @@
         <v>5</v>
       </c>
       <c r="D152">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="E152">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
       <c r="F152">
         <v>0.847</v>
@@ -4615,10 +4615,10 @@
         <v>2</v>
       </c>
       <c r="D155">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="E155">
-        <v>0.883</v>
+        <v>0.881</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -4716,13 +4716,13 @@
         <v>2</v>
       </c>
       <c r="D159">
-        <v>4.67</v>
+        <v>5.42</v>
       </c>
       <c r="E159">
-        <v>0.065</v>
+        <v>0.048</v>
       </c>
       <c r="F159">
-        <v>0.77</v>
+        <v>0.59136</v>
       </c>
       <c r="G159" t="b">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>0.95</v>
+        <v>1.12</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -4849,13 +4849,13 @@
         <v>3</v>
       </c>
       <c r="D164">
-        <v>3.66</v>
+        <v>3.77</v>
       </c>
       <c r="E164">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="F164">
-        <v>0.5261666666666667</v>
+        <v>0.4876666666666667</v>
       </c>
       <c r="G164" t="b">
         <v>0</v>
@@ -4881,13 +4881,13 @@
         <v>5</v>
       </c>
       <c r="D165">
-        <v>2.7</v>
+        <v>2.89</v>
       </c>
       <c r="E165">
-        <v>0.029</v>
+        <v>0.018</v>
       </c>
       <c r="F165">
-        <v>0.3883478260869566</v>
+        <v>0.2410434782608696</v>
       </c>
       <c r="G165" t="b">
         <v>0</v>
@@ -4913,13 +4913,13 @@
         <v>7</v>
       </c>
       <c r="D166">
-        <v>3.86</v>
+        <v>4.05</v>
       </c>
       <c r="E166">
         <v>0.0009</v>
       </c>
       <c r="F166">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
@@ -4991,10 +4991,10 @@
         <v>2</v>
       </c>
       <c r="D169">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="E169">
-        <v>0.76</v>
+        <v>0.754</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -5023,13 +5023,13 @@
         <v>4</v>
       </c>
       <c r="D170">
-        <v>8.6</v>
+        <v>8.08</v>
       </c>
       <c r="E170">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="F170">
-        <v>0.01711111111111111</v>
+        <v>0.0154</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -5124,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -5202,10 +5202,10 @@
         <v>2</v>
       </c>
       <c r="D177">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="E177">
-        <v>0.23</v>
+        <v>0.268</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -5349,13 +5349,13 @@
         <v>5</v>
       </c>
       <c r="D183">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="E183">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="F183">
-        <v>0.1466666666666667</v>
+        <v>0.1613333333333333</v>
       </c>
       <c r="G183" t="b">
         <v>0</v>
@@ -5597,13 +5597,13 @@
         <v>17</v>
       </c>
       <c r="D193">
-        <v>7.91</v>
+        <v>7.87</v>
       </c>
       <c r="E193">
         <v>0.0009</v>
       </c>
       <c r="F193">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -5707,10 +5707,10 @@
         <v>5</v>
       </c>
       <c r="D197">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="E197">
-        <v>0.184</v>
+        <v>0.18</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="D203">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="E203">
-        <v>0.329</v>
+        <v>0.347</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -5941,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -6005,13 +6005,13 @@
         <v>28</v>
       </c>
       <c r="D208">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="E208">
         <v>0.0009</v>
       </c>
       <c r="F208">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
@@ -6060,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -6115,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -6285,10 +6285,10 @@
         <v>2</v>
       </c>
       <c r="D219">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="E219">
-        <v>0.744</v>
+        <v>0.754</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -6340,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -6441,13 +6441,13 @@
         <v>28</v>
       </c>
       <c r="D225">
-        <v>6.64</v>
+        <v>6.58</v>
       </c>
       <c r="E225">
         <v>0.0009</v>
       </c>
       <c r="F225">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
@@ -6542,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -6597,13 +6597,13 @@
         <v>9</v>
       </c>
       <c r="D231">
-        <v>6.37</v>
+        <v>6.27</v>
       </c>
       <c r="E231">
         <v>0.0009</v>
       </c>
       <c r="F231">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
@@ -6721,7 +6721,7 @@
         <v>4</v>
       </c>
       <c r="D236">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="E236">
         <v>0.138</v>
@@ -6776,13 +6776,13 @@
         <v>10</v>
       </c>
       <c r="D238">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="E238">
         <v>0.0009</v>
       </c>
       <c r="F238">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
@@ -7015,13 +7015,13 @@
         <v>26</v>
       </c>
       <c r="D248">
-        <v>22.47</v>
+        <v>23.38</v>
       </c>
       <c r="E248">
         <v>0.0009</v>
       </c>
       <c r="F248">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
@@ -7050,7 +7050,7 @@
         <v>0.77</v>
       </c>
       <c r="E249">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -7148,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -7180,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>6.25</v>
+        <v>10</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -7442,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -7474,13 +7474,13 @@
         <v>2</v>
       </c>
       <c r="D266">
-        <v>4.2</v>
+        <v>4.28</v>
       </c>
       <c r="E266">
-        <v>0.064</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F266">
-        <v>0.77</v>
+        <v>0.9346206896551723</v>
       </c>
       <c r="G266" t="b">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>33.33</v>
+        <v>11.11</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>4.17</v>
+        <v>2.44</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -7846,13 +7846,13 @@
         <v>2</v>
       </c>
       <c r="D281">
-        <v>3.54</v>
+        <v>3.88</v>
       </c>
       <c r="E281">
-        <v>0.112</v>
+        <v>0.075</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0.847</v>
       </c>
       <c r="G281" t="b">
         <v>0</v>
@@ -8315,13 +8315,13 @@
         <v>15</v>
       </c>
       <c r="D301">
-        <v>13.8</v>
+        <v>14.3</v>
       </c>
       <c r="E301">
         <v>0.0009</v>
       </c>
       <c r="F301">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
@@ -8439,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="D306">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -8494,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -8526,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -8603,13 +8603,13 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>8.06</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E2">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="F2">
-        <v>0.022</v>
+        <v>0.0198</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -8750,13 +8750,13 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>18.39</v>
+        <v>19.73</v>
       </c>
       <c r="E8">
         <v>0.0009</v>
       </c>
       <c r="F8">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -8782,10 +8782,10 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="E9">
-        <v>0.317</v>
+        <v>0.328</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -8883,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -8938,10 +8938,10 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="E15">
-        <v>0.209</v>
+        <v>0.246</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -8993,13 +8993,13 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>13.89</v>
+        <v>14.49</v>
       </c>
       <c r="E17">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="F17">
-        <v>0.1197777777777778</v>
+        <v>0.09625</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -9186,7 +9186,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -9241,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -9273,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1.16</v>
+        <v>1.49</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -9581,10 +9581,10 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="E41">
-        <v>0.143</v>
+        <v>0.134</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -9705,13 +9705,13 @@
         <v>39</v>
       </c>
       <c r="D46">
-        <v>21.97</v>
+        <v>22.02</v>
       </c>
       <c r="E46">
         <v>0.0009</v>
       </c>
       <c r="F46">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -9806,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -9999,7 +9999,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -10192,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -10250,7 +10250,7 @@
         <v>0.88</v>
       </c>
       <c r="E68">
-        <v>0.6889999999999999</v>
+        <v>0.676</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -10325,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -10426,13 +10426,13 @@
         <v>6</v>
       </c>
       <c r="D75">
-        <v>9.98</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E75">
         <v>0.0009</v>
       </c>
       <c r="F75">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -10481,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -10608,7 +10608,7 @@
         <v>1.72</v>
       </c>
       <c r="E82">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -10660,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -10885,13 +10885,13 @@
         <v>33</v>
       </c>
       <c r="D93">
-        <v>16.89</v>
+        <v>16.43</v>
       </c>
       <c r="E93">
         <v>0.0009</v>
       </c>
       <c r="F93">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -10940,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -11041,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -11326,13 +11326,13 @@
         <v>32</v>
       </c>
       <c r="D111">
-        <v>15.77</v>
+        <v>16.23</v>
       </c>
       <c r="E111">
         <v>0.0009</v>
       </c>
       <c r="F111">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -11574,10 +11574,10 @@
         <v>2</v>
       </c>
       <c r="D121">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="E121">
-        <v>0.593</v>
+        <v>0.584</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -11629,7 +11629,7 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -11693,10 +11693,10 @@
         <v>3</v>
       </c>
       <c r="D125">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="E125">
-        <v>0.304</v>
+        <v>0.307</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -11771,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -11941,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -11973,13 +11973,13 @@
         <v>7</v>
       </c>
       <c r="D136">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="E136">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="F136">
-        <v>0.05775</v>
+        <v>0.1268235294117647</v>
       </c>
       <c r="G136" t="b">
         <v>0</v>
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -12106,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -12207,10 +12207,10 @@
         <v>2</v>
       </c>
       <c r="D145">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="E145">
-        <v>0.111</v>
+        <v>0.119</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -12331,13 +12331,13 @@
         <v>14</v>
       </c>
       <c r="D150">
-        <v>6.05</v>
+        <v>5.84</v>
       </c>
       <c r="E150">
         <v>0.0009</v>
       </c>
       <c r="F150">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -12363,10 +12363,10 @@
         <v>3</v>
       </c>
       <c r="D151">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="E151">
-        <v>0.205</v>
+        <v>0.198</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -12398,7 +12398,7 @@
         <v>2.15</v>
       </c>
       <c r="E152">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -12473,10 +12473,10 @@
         <v>2</v>
       </c>
       <c r="D155">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="E155">
-        <v>0.719</v>
+        <v>0.74</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -12574,10 +12574,10 @@
         <v>2</v>
       </c>
       <c r="D159">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="E159">
-        <v>0.104</v>
+        <v>0.132</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -12606,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>11.11</v>
+        <v>16.67</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -12707,10 +12707,10 @@
         <v>3</v>
       </c>
       <c r="D164">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="E164">
-        <v>0.395</v>
+        <v>0.438</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -12739,13 +12739,13 @@
         <v>5</v>
       </c>
       <c r="D165">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="E165">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="F165">
-        <v>0.2431578947368421</v>
+        <v>0.2593684210526316</v>
       </c>
       <c r="G165" t="b">
         <v>0</v>
@@ -12771,13 +12771,13 @@
         <v>7</v>
       </c>
       <c r="D166">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="E166">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="F166">
-        <v>0.09058823529411765</v>
+        <v>0.1368888888888889</v>
       </c>
       <c r="G166" t="b">
         <v>0</v>
@@ -12849,10 +12849,10 @@
         <v>2</v>
       </c>
       <c r="D169">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E169">
-        <v>0.696</v>
+        <v>0.728</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -12881,16 +12881,16 @@
         <v>4</v>
       </c>
       <c r="D170">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="E170">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="F170">
-        <v>0.04106666666666667</v>
+        <v>0.09625</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" t="s">
         <v>75</v>
@@ -12982,7 +12982,7 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>11.11</v>
+        <v>16.67</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -13060,10 +13060,10 @@
         <v>2</v>
       </c>
       <c r="D177">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.587</v>
+        <v>0.608</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -13207,10 +13207,10 @@
         <v>5</v>
       </c>
       <c r="D183">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="E183">
-        <v>0.075</v>
+        <v>0.096</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -13308,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -13455,13 +13455,13 @@
         <v>17</v>
       </c>
       <c r="D193">
-        <v>10.95</v>
+        <v>11.03</v>
       </c>
       <c r="E193">
         <v>0.0009</v>
       </c>
       <c r="F193">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -13533,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -13565,10 +13565,10 @@
         <v>5</v>
       </c>
       <c r="D197">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="E197">
-        <v>0.08</v>
+        <v>0.104</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -13666,7 +13666,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>2.33</v>
+        <v>1.82</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -13721,10 +13721,10 @@
         <v>3</v>
       </c>
       <c r="D203">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="E203">
-        <v>0.122</v>
+        <v>0.13</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -13799,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -13831,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -13863,13 +13863,13 @@
         <v>28</v>
       </c>
       <c r="D208">
-        <v>12.11</v>
+        <v>12.04</v>
       </c>
       <c r="E208">
         <v>0.0009</v>
       </c>
       <c r="F208">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
@@ -13918,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>1.16</v>
+        <v>1.49</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -13973,7 +13973,7 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -14143,10 +14143,10 @@
         <v>2</v>
       </c>
       <c r="D219">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="E219">
-        <v>0.59</v>
+        <v>0.582</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -14198,7 +14198,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>0.83</v>
+        <v>0.68</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -14299,13 +14299,13 @@
         <v>28</v>
       </c>
       <c r="D225">
-        <v>11.88</v>
+        <v>11.34</v>
       </c>
       <c r="E225">
         <v>0.0009</v>
       </c>
       <c r="F225">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
@@ -14400,7 +14400,7 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>2.33</v>
+        <v>1.82</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -14455,13 +14455,13 @@
         <v>9</v>
       </c>
       <c r="D231">
-        <v>7.14</v>
+        <v>6.99</v>
       </c>
       <c r="E231">
         <v>0.0009</v>
       </c>
       <c r="F231">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
@@ -14579,10 +14579,10 @@
         <v>4</v>
       </c>
       <c r="D236">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="E236">
-        <v>0.2</v>
+        <v>0.191</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -14634,13 +14634,13 @@
         <v>10</v>
       </c>
       <c r="D238">
-        <v>12.32</v>
+        <v>13.37</v>
       </c>
       <c r="E238">
         <v>0.0009</v>
       </c>
       <c r="F238">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
@@ -14873,13 +14873,13 @@
         <v>26</v>
       </c>
       <c r="D248">
-        <v>11.41</v>
+        <v>11.03</v>
       </c>
       <c r="E248">
         <v>0.0009</v>
       </c>
       <c r="F248">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
@@ -14905,7 +14905,7 @@
         <v>2</v>
       </c>
       <c r="D249">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="E249">
         <v>0.449</v>
@@ -15006,7 +15006,7 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -15300,7 +15300,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -15332,10 +15332,10 @@
         <v>2</v>
       </c>
       <c r="D266">
-        <v>2.46</v>
+        <v>2.67</v>
       </c>
       <c r="E266">
-        <v>0.201</v>
+        <v>0.17</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -15410,7 +15410,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>8.33</v>
+        <v>7.69</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -15603,7 +15603,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -15704,10 +15704,10 @@
         <v>2</v>
       </c>
       <c r="D281">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="E281">
-        <v>0.719</v>
+        <v>0.74</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -16173,13 +16173,13 @@
         <v>15</v>
       </c>
       <c r="D301">
-        <v>11.9</v>
+        <v>11.3</v>
       </c>
       <c r="E301">
         <v>0.0009</v>
       </c>
       <c r="F301">
-        <v>0.02132307692307692</v>
+        <v>0.0198</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
@@ -16352,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -16384,7 +16384,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="E309">
         <v>1</v>
